--- a/dynamics lab 2/dynamics final excel data.xlsx
+++ b/dynamics lab 2/dynamics final excel data.xlsx
@@ -1,29 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/surya/Documents/physics/dynamics lab 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2926FEC2-FF0D-BE44-B96F-4F3314E56279}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD11552-DFCA-0F45-9654-DCE72771E44C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16520" xr2:uid="{78E6A9BE-1A1A-FE42-BC2E-C3C1820AF4A1}"/>
+    <workbookView xWindow="2780" yWindow="460" windowWidth="28040" windowHeight="16500" xr2:uid="{78E6A9BE-1A1A-FE42-BC2E-C3C1820AF4A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$169</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$169</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$2:$A$169</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$2:$B$169</definedName>
-  </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -108,6 +100,50 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>Graph</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" baseline="0"/>
+              <a:t> 1. </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>The relationship between the acceleration of a 5 gram hanging mass in orange and a 15 gram mass in blue are inversely proportional to the tension.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15241928966885671"/>
+          <c:y val="0.83423289259944122"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -139,7 +175,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14416221772240795"/>
+          <c:y val="2.4351713859910588E-2"/>
+          <c:w val="0.82867524073134202"/>
+          <c:h val="0.66547688194260624"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -179,6 +225,39 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-522A-124E-81D4-C90774CBC21A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$169</c:f>
@@ -186,28 +265,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="168"/>
                 <c:pt idx="0">
+                  <c:v>-0.14452380952380939</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>-0.71</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>-0.52</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>-0.43</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>-0.37</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>-0.52</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>-0.4</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.12</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.15</c:v>
+                  <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>-0.15</c:v>
@@ -216,20 +295,20 @@
                   <c:v>-0.15</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>-0.15</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>-0.21</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.12</c:v>
-                </c:pt>
                 <c:pt idx="12">
+                  <c:v>-0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>-0.18</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>-0.06</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>-0.15</c:v>
-                </c:pt>
                 <c:pt idx="15">
                   <c:v>-0.15</c:v>
                 </c:pt>
@@ -237,13 +316,13 @@
                   <c:v>-0.15</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.12</c:v>
+                  <c:v>-0.15</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.15</c:v>
+                  <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.12</c:v>
+                  <c:v>-0.15</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>-0.12</c:v>
@@ -252,10 +331,10 @@
                   <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.15</c:v>
+                  <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.12</c:v>
+                  <c:v>-0.15</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-0.12</c:v>
@@ -264,82 +343,82 @@
                   <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.15</c:v>
+                  <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-0.15</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.12</c:v>
+                  <c:v>-0.15</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>-0.12</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>-0.15</c:v>
-                </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.18</c:v>
+                  <c:v>-0.15</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-0.18</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.12</c:v>
+                  <c:v>-0.18</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.15</c:v>
+                  <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.12</c:v>
+                  <c:v>-0.15</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.15</c:v>
+                  <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.12</c:v>
+                  <c:v>-0.15</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="41">
+                  <c:v>-0.12</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>-0.18</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>-0.09</c:v>
                 </c:pt>
-                <c:pt idx="43">
-                  <c:v>-0.15</c:v>
-                </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.12</c:v>
+                  <c:v>-0.15</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>-0.12</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>-0.18</c:v>
                 </c:pt>
-                <c:pt idx="47">
-                  <c:v>-0.12</c:v>
-                </c:pt>
                 <c:pt idx="48">
                   <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.15</c:v>
+                  <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>-0.15</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-0.18</c:v>
+                  <c:v>-0.15</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>-0.18</c:v>
@@ -348,83 +427,83 @@
                   <c:v>-0.18</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-0.06</c:v>
+                  <c:v>-0.18</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>-0.06</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-0.15</c:v>
+                  <c:v>-0.06</c:v>
                 </c:pt>
                 <c:pt idx="57">
+                  <c:v>-0.15</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>-0.18</c:v>
                 </c:pt>
-                <c:pt idx="58">
-                  <c:v>-0.12</c:v>
-                </c:pt>
                 <c:pt idx="59">
+                  <c:v>-0.12</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>-0.18</c:v>
                 </c:pt>
-                <c:pt idx="60">
-                  <c:v>-0.15</c:v>
-                </c:pt>
                 <c:pt idx="61">
+                  <c:v>-0.15</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>-0.21</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="63">
                   <c:v>-0.18</c:v>
                 </c:pt>
-                <c:pt idx="63">
-                  <c:v>-0.15</c:v>
-                </c:pt>
                 <c:pt idx="64">
-                  <c:v>-0.12</c:v>
+                  <c:v>-0.15</c:v>
                 </c:pt>
                 <c:pt idx="65">
+                  <c:v>-0.12</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>-0.18</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="67">
                   <c:v>-0.09</c:v>
                 </c:pt>
-                <c:pt idx="67">
-                  <c:v>-0.12</c:v>
-                </c:pt>
                 <c:pt idx="68">
-                  <c:v>-0.15</c:v>
+                  <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="69">
+                  <c:v>-0.15</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>-0.21</c:v>
                 </c:pt>
-                <c:pt idx="70">
-                  <c:v>-0.12</c:v>
-                </c:pt>
                 <c:pt idx="71">
-                  <c:v>-0.15</c:v>
+                  <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>-0.15</c:v>
+                </c:pt>
+                <c:pt idx="73">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="74">
                   <c:v>-0.03</c:v>
                 </c:pt>
-                <c:pt idx="74">
-                  <c:v>-0.12</c:v>
-                </c:pt>
                 <c:pt idx="75">
-                  <c:v>-0.15</c:v>
+                  <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-0.12</c:v>
+                  <c:v>-0.15</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="78">
+                  <c:v>-0.12</c:v>
+                </c:pt>
+                <c:pt idx="79">
                   <c:v>-0.06</c:v>
                 </c:pt>
-                <c:pt idx="79">
-                  <c:v>-0.12</c:v>
-                </c:pt>
                 <c:pt idx="80">
                   <c:v>-0.12</c:v>
                 </c:pt>
@@ -438,16 +517,16 @@
                   <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="84">
+                  <c:v>-0.12</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>-0.09</c:v>
                 </c:pt>
-                <c:pt idx="85">
-                  <c:v>-0.12</c:v>
-                </c:pt>
                 <c:pt idx="86">
-                  <c:v>-0.15</c:v>
+                  <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-0.12</c:v>
+                  <c:v>-0.15</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>-0.12</c:v>
@@ -456,14 +535,14 @@
                   <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>-0.12</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>-0.06</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="92">
                   <c:v>-0.09</c:v>
                 </c:pt>
-                <c:pt idx="92">
-                  <c:v>-0.12</c:v>
-                </c:pt>
                 <c:pt idx="93">
                   <c:v>-0.12</c:v>
                 </c:pt>
@@ -471,73 +550,73 @@
                   <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-0.15</c:v>
+                  <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-0.12</c:v>
+                  <c:v>-0.15</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-0.15</c:v>
+                  <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>-0.15</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>-0.18</c:v>
                 </c:pt>
-                <c:pt idx="100">
-                  <c:v>-0.12</c:v>
-                </c:pt>
                 <c:pt idx="101">
-                  <c:v>-0.15</c:v>
+                  <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-0.12</c:v>
+                  <c:v>-0.15</c:v>
                 </c:pt>
                 <c:pt idx="103">
                   <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>-0.09</c:v>
+                  <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="105">
                   <c:v>-0.09</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>-0.15</c:v>
+                  <c:v>-0.09</c:v>
                 </c:pt>
                 <c:pt idx="107">
+                  <c:v>-0.15</c:v>
+                </c:pt>
+                <c:pt idx="108">
                   <c:v>-0.18</c:v>
                 </c:pt>
-                <c:pt idx="108">
-                  <c:v>-0.15</c:v>
-                </c:pt>
                 <c:pt idx="109">
-                  <c:v>-0.12</c:v>
+                  <c:v>-0.15</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>-0.15</c:v>
+                  <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>-0.12</c:v>
+                  <c:v>-0.15</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>-0.15</c:v>
+                  <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>-0.12</c:v>
+                  <c:v>-0.15</c:v>
                 </c:pt>
                 <c:pt idx="114">
                   <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="115">
+                  <c:v>-0.12</c:v>
+                </c:pt>
+                <c:pt idx="116">
                   <c:v>-0.09</c:v>
                 </c:pt>
-                <c:pt idx="116">
-                  <c:v>-0.15</c:v>
-                </c:pt>
                 <c:pt idx="117">
-                  <c:v>-0.12</c:v>
+                  <c:v>-0.15</c:v>
                 </c:pt>
                 <c:pt idx="118">
                   <c:v>-0.12</c:v>
@@ -552,19 +631,19 @@
                   <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>-0.15</c:v>
+                  <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>-0.12</c:v>
+                  <c:v>-0.15</c:v>
                 </c:pt>
                 <c:pt idx="124">
                   <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>-0.15</c:v>
+                  <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>-0.12</c:v>
+                  <c:v>-0.15</c:v>
                 </c:pt>
                 <c:pt idx="127">
                   <c:v>-0.12</c:v>
@@ -576,13 +655,13 @@
                   <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>-0.15</c:v>
+                  <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="131">
                   <c:v>-0.15</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>-0.12</c:v>
+                  <c:v>-0.15</c:v>
                 </c:pt>
                 <c:pt idx="133">
                   <c:v>-0.12</c:v>
@@ -591,25 +670,25 @@
                   <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>-0.15</c:v>
+                  <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>-0.12</c:v>
+                  <c:v>-0.15</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>-0.15</c:v>
+                  <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>-0.15</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>-0.12</c:v>
+                  <c:v>-0.15</c:v>
                 </c:pt>
                 <c:pt idx="140">
                   <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>-0.15</c:v>
+                  <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="142">
                   <c:v>-0.15</c:v>
@@ -618,13 +697,13 @@
                   <c:v>-0.15</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>-0.12</c:v>
+                  <c:v>-0.15</c:v>
                 </c:pt>
                 <c:pt idx="145">
                   <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>-0.15</c:v>
+                  <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="147">
                   <c:v>-0.15</c:v>
@@ -642,46 +721,46 @@
                   <c:v>-0.15</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>-0.12</c:v>
+                  <c:v>-0.15</c:v>
                 </c:pt>
                 <c:pt idx="153">
                   <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>-0.15</c:v>
+                  <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="155">
                   <c:v>-0.15</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>-0.12</c:v>
+                  <c:v>-0.15</c:v>
                 </c:pt>
                 <c:pt idx="157">
                   <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>-0.15</c:v>
+                  <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>-0.12</c:v>
+                  <c:v>-0.15</c:v>
                 </c:pt>
                 <c:pt idx="160">
+                  <c:v>-0.12</c:v>
+                </c:pt>
+                <c:pt idx="161">
                   <c:v>-0.18</c:v>
                 </c:pt>
-                <c:pt idx="161">
-                  <c:v>-0.12</c:v>
-                </c:pt>
                 <c:pt idx="162">
+                  <c:v>-0.12</c:v>
+                </c:pt>
+                <c:pt idx="163">
                   <c:v>-0.09</c:v>
                 </c:pt>
-                <c:pt idx="163">
-                  <c:v>-0.12</c:v>
-                </c:pt>
                 <c:pt idx="164">
                   <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>-0.15</c:v>
+                  <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="166">
                   <c:v>-0.15</c:v>
@@ -699,508 +778,508 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="168"/>
                 <c:pt idx="0">
+                  <c:v>3.5782142857142851</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>5.94</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>3.76</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.86</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1.21</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2.76</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.57999999999999996</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>3.72</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>3.57</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>3.29</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>3.13</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>2.76</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>2.38</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>1.95</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>3.86</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>4.09</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>4.03</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>3.76</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>3.98</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>0.42</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>3.35</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>3.11</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>2.95</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>2.54</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>2.6</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>3.56</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>3.31</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>3.21</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>3.33</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>2.63</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>2.71</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>3.47</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>3.67</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>3.74</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>3.59</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>3.15</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>2.95</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>3.84</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>3.7</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>3.96</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>3.97</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>3.75</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>3.61</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>3.33</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>3.83</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>3.79</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>3.45</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>3.62</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>2.63</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>3.77</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>3.56</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>3.86</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>3.63</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>3.2</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>3.59</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>4.2</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>4.05</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>3.89</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>4.04</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>3.05</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>3.34</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>4.1900000000000004</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>4.1900000000000004</c:v>
                 </c:pt>
                 <c:pt idx="62">
+                  <c:v>4.1900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>3.64</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="64">
                   <c:v>3.62</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="65">
                   <c:v>3.18</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="66">
                   <c:v>2.83</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="67">
                   <c:v>3.76</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="68">
                   <c:v>3.48</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="69">
                   <c:v>3.15</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="70">
                   <c:v>3.6</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="71">
                   <c:v>2.95</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="72">
                   <c:v>3.23</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="73">
                   <c:v>4.3099999999999996</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="74">
                   <c:v>4.2300000000000004</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="75">
                   <c:v>4.08</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="76">
                   <c:v>4.71</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="77">
                   <c:v>3.94</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="78">
                   <c:v>4.7</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="79">
                   <c:v>4.25</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="80">
                   <c:v>4.29</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="81">
                   <c:v>4.1500000000000004</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="82">
                   <c:v>4.41</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="83">
                   <c:v>4.38</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="84">
                   <c:v>4.2300000000000004</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="85">
                   <c:v>4.3099999999999996</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="86">
                   <c:v>4.28</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="87">
                   <c:v>4.4400000000000004</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="88">
                   <c:v>4.42</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="89">
                   <c:v>4.1900000000000004</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="90">
                   <c:v>4.8899999999999997</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="91">
                   <c:v>4.4400000000000004</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>4.25</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>4.25</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>3.57</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="95">
                   <c:v>3.64</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="96">
                   <c:v>3.22</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="97">
                   <c:v>4.0999999999999996</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="98">
                   <c:v>3.74</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="99">
                   <c:v>3.58</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="100">
                   <c:v>3.45</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="101">
                   <c:v>3.96</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="102">
                   <c:v>3.52</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="103">
                   <c:v>3.74</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="104">
                   <c:v>3.37</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="105">
                   <c:v>3.32</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="106">
                   <c:v>3.26</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="107">
                   <c:v>3.2</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="108">
                   <c:v>3.63</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="109">
                   <c:v>3.91</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="110">
                   <c:v>3.78</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="111">
                   <c:v>3.18</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="112">
                   <c:v>3.15</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="113">
                   <c:v>2.9</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="114">
                   <c:v>2.63</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="115">
                   <c:v>3.57</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="116">
                   <c:v>3.14</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="117">
                   <c:v>3.13</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="118">
                   <c:v>2.92</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="119">
                   <c:v>2.84</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="120">
                   <c:v>2.94</c:v>
                 </c:pt>
-                <c:pt idx="120">
+                <c:pt idx="121">
                   <c:v>4.1399999999999997</c:v>
                 </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="122">
                   <c:v>3.73</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="123">
                   <c:v>3.71</c:v>
                 </c:pt>
-                <c:pt idx="123">
+                <c:pt idx="124">
                   <c:v>3.47</c:v>
                 </c:pt>
-                <c:pt idx="124">
+                <c:pt idx="125">
                   <c:v>3.29</c:v>
                 </c:pt>
-                <c:pt idx="125">
+                <c:pt idx="126">
                   <c:v>3.37</c:v>
                 </c:pt>
-                <c:pt idx="126">
+                <c:pt idx="127">
                   <c:v>4.04</c:v>
                 </c:pt>
-                <c:pt idx="127">
+                <c:pt idx="128">
                   <c:v>3.67</c:v>
                 </c:pt>
-                <c:pt idx="128">
+                <c:pt idx="129">
                   <c:v>3.51</c:v>
                 </c:pt>
-                <c:pt idx="129">
+                <c:pt idx="130">
                   <c:v>3.22</c:v>
                 </c:pt>
-                <c:pt idx="130">
+                <c:pt idx="131">
                   <c:v>3.92</c:v>
                 </c:pt>
-                <c:pt idx="131">
+                <c:pt idx="132">
                   <c:v>3.36</c:v>
                 </c:pt>
-                <c:pt idx="132">
+                <c:pt idx="133">
                   <c:v>3.76</c:v>
                 </c:pt>
-                <c:pt idx="133">
+                <c:pt idx="134">
                   <c:v>3.85</c:v>
                 </c:pt>
-                <c:pt idx="134">
+                <c:pt idx="135">
                   <c:v>3.56</c:v>
                 </c:pt>
-                <c:pt idx="135">
+                <c:pt idx="136">
                   <c:v>3.98</c:v>
                 </c:pt>
-                <c:pt idx="136">
+                <c:pt idx="137">
                   <c:v>3.7</c:v>
                 </c:pt>
-                <c:pt idx="137">
+                <c:pt idx="138">
                   <c:v>3.95</c:v>
                 </c:pt>
-                <c:pt idx="138">
+                <c:pt idx="139">
                   <c:v>3.92</c:v>
                 </c:pt>
-                <c:pt idx="139">
+                <c:pt idx="140">
                   <c:v>3.87</c:v>
                 </c:pt>
-                <c:pt idx="140">
+                <c:pt idx="141">
                   <c:v>3.86</c:v>
                 </c:pt>
-                <c:pt idx="141">
+                <c:pt idx="142">
                   <c:v>3.78</c:v>
                 </c:pt>
-                <c:pt idx="142">
+                <c:pt idx="143">
                   <c:v>4.12</c:v>
                 </c:pt>
-                <c:pt idx="143">
+                <c:pt idx="144">
                   <c:v>3.91</c:v>
                 </c:pt>
-                <c:pt idx="144">
+                <c:pt idx="145">
                   <c:v>4.07</c:v>
                 </c:pt>
-                <c:pt idx="145">
+                <c:pt idx="146">
                   <c:v>3.9</c:v>
                 </c:pt>
-                <c:pt idx="146">
+                <c:pt idx="147">
                   <c:v>3.88</c:v>
                 </c:pt>
-                <c:pt idx="147">
+                <c:pt idx="148">
                   <c:v>4.08</c:v>
                 </c:pt>
-                <c:pt idx="148">
+                <c:pt idx="149">
                   <c:v>4.18</c:v>
                 </c:pt>
-                <c:pt idx="149">
+                <c:pt idx="150">
                   <c:v>3.79</c:v>
                 </c:pt>
-                <c:pt idx="150">
+                <c:pt idx="151">
                   <c:v>4.03</c:v>
                 </c:pt>
-                <c:pt idx="151">
+                <c:pt idx="152">
                   <c:v>3.91</c:v>
                 </c:pt>
-                <c:pt idx="152">
+                <c:pt idx="153">
                   <c:v>3.98</c:v>
                 </c:pt>
-                <c:pt idx="153">
+                <c:pt idx="154">
                   <c:v>3.96</c:v>
                 </c:pt>
-                <c:pt idx="154">
+                <c:pt idx="155">
                   <c:v>3.88</c:v>
                 </c:pt>
-                <c:pt idx="155">
+                <c:pt idx="156">
                   <c:v>4.0999999999999996</c:v>
                 </c:pt>
-                <c:pt idx="156">
+                <c:pt idx="157">
                   <c:v>4.0199999999999996</c:v>
                 </c:pt>
-                <c:pt idx="157">
+                <c:pt idx="158">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="158">
+                <c:pt idx="159">
                   <c:v>4.0199999999999996</c:v>
                 </c:pt>
-                <c:pt idx="159">
+                <c:pt idx="160">
                   <c:v>3.79</c:v>
                 </c:pt>
-                <c:pt idx="160">
+                <c:pt idx="161">
                   <c:v>4.3499999999999996</c:v>
                 </c:pt>
-                <c:pt idx="161">
+                <c:pt idx="162">
                   <c:v>3.2</c:v>
                 </c:pt>
-                <c:pt idx="162">
+                <c:pt idx="163">
                   <c:v>3.1</c:v>
                 </c:pt>
-                <c:pt idx="163">
+                <c:pt idx="164">
                   <c:v>3.17</c:v>
                 </c:pt>
-                <c:pt idx="164">
+                <c:pt idx="165">
                   <c:v>3.11</c:v>
                 </c:pt>
-                <c:pt idx="165">
+                <c:pt idx="166">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="166">
+                <c:pt idx="167">
                   <c:v>3.31</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>2.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1248,23 +1327,101 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-522A-124E-81D4-C90774CBC21A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="0.25"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$169</c:f>
+              <c:f>Sheet1!$C$2:$C$168</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="168"/>
+                <c:ptCount val="167"/>
                 <c:pt idx="0">
+                  <c:v>-0.44928571428571429</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>-0.49</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.46</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-0.46</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.49</c:v>
+                  <c:v>-0.46</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>-0.49</c:v>
@@ -1273,10 +1430,10 @@
                   <c:v>-0.49</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>-0.49</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>-0.46</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.49</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>-0.49</c:v>
@@ -1291,85 +1448,85 @@
                   <c:v>-0.49</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>-0.49</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>-0.46</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>-0.52</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>-0.4</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>-0.55000000000000004</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>-0.46</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>-0.49</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-0.4</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>-0.4</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>-0.49</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>-0.43</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-0.49</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>-0.49</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>-0.49</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>-0.4</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>-0.52</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>-0.46</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>-0.52</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>-0.49</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-0.52</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-0.52</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>-0.52</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>-0.46</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>-0.49</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>-0.46</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>-0.49</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>-0.52</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-0.4</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-0.4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.43</c:v>
+                  <c:v>-0.4</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>-0.43</c:v>
@@ -1381,37 +1538,37 @@
                   <c:v>-0.43</c:v>
                 </c:pt>
                 <c:pt idx="42">
+                  <c:v>-0.43</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>-0.43</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>-0.49</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>-0.4</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>-0.43</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-0.49</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>-0.49</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>-0.49</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>-0.52</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-0.49</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>-0.49</c:v>
@@ -1423,16 +1580,16 @@
                   <c:v>-0.49</c:v>
                 </c:pt>
                 <c:pt idx="56">
+                  <c:v>-0.49</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>-0.46</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>-0.49</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>-0.49</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-0.46</c:v>
+                  <c:v>-0.49</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>-0.46</c:v>
@@ -1444,25 +1601,25 @@
                   <c:v>-0.46</c:v>
                 </c:pt>
                 <c:pt idx="63">
+                  <c:v>-0.46</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>-0.49</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="65">
                   <c:v>-0.46</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="66">
                   <c:v>-0.49</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>-0.43</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>-0.43</c:v>
                 </c:pt>
                 <c:pt idx="68">
+                  <c:v>-0.43</c:v>
+                </c:pt>
+                <c:pt idx="69">
                   <c:v>-0.37</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>-0.4</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>-0.4</c:v>
@@ -1471,28 +1628,28 @@
                   <c:v>-0.4</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="73">
                   <c:v>-0.49</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="74">
                   <c:v>-0.43</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="75">
                   <c:v>-0.52</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>-0.49</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>-0.49</c:v>
                 </c:pt>
                 <c:pt idx="77">
+                  <c:v>-0.49</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>-0.52</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="79">
                   <c:v>-0.46</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-0.49</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>-0.49</c:v>
@@ -1504,6 +1661,9 @@
                   <c:v>-0.49</c:v>
                 </c:pt>
                 <c:pt idx="83">
+                  <c:v>-0.49</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>-0.49</c:v>
                 </c:pt>
               </c:numCache>
@@ -1511,260 +1671,263 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$169</c:f>
+              <c:f>Sheet1!$D$2:$D$168</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="168"/>
+                <c:ptCount val="167"/>
                 <c:pt idx="0">
-                  <c:v>13.18</c:v>
+                  <c:v>12.14357142857143</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>13.18</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>13.18</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>13.35</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>12.86</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>12.6</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>11.72</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>13.52</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>12.83</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>12.92</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>12.04</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>11.88</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>11.92</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>11.75</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>12.33</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>12.16</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>13.23</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>12.36</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>14.07</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>12.56</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>12.85</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>12.95</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>11.87</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>13.52</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>12.22</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>12.28</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>13.38</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>13.15</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>13.27</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>13.95</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>11.95</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>13.22</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>13.48</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>13.54</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>14.39</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>12.15</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>12.82</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>10.18</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>11.69</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>11.63</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>10.94</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>11.53</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>11.85</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>-0.5</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>-0.01</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>2.21</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>13.45</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>13.14</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>13.07</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>13.12</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>12.98</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>13.78</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>13.58</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>13.08</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>13.44</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>14.06</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>13.28</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>13.37</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>12.32</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>11.88</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>12.96</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="62">
                   <c:v>12.67</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="63">
                   <c:v>13.38</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="64">
                   <c:v>13.09</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="65">
                   <c:v>12.96</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="66">
                   <c:v>12.77</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="67">
                   <c:v>12.61</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="68">
                   <c:v>12.62</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="69">
                   <c:v>11.48</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="70">
                   <c:v>11.21</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="71">
                   <c:v>10.3</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="72">
                   <c:v>11.95</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="73">
                   <c:v>13.16</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="74">
                   <c:v>12.78</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="75">
                   <c:v>14.18</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="76">
                   <c:v>13.69</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="77">
                   <c:v>13.89</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="78">
                   <c:v>13.73</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="79">
                   <c:v>11.56</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="80">
                   <c:v>13.19</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="81">
                   <c:v>13.02</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="82">
                   <c:v>12.7</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="83">
                   <c:v>12.68</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="84">
                   <c:v>11.93</c:v>
                 </c:pt>
               </c:numCache>
@@ -1809,6 +1972,84 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Tension, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>F</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>T</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400" b="0">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.47454116719600525"/>
+              <c:y val="0.72852531569636014"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1871,6 +2112,95 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200">
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Acceleration, a (m/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>s</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="30000">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200">
+                  <a:latin typeface="+mn-lt"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0"/>
+              <c:y val="0.34112155761946572"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1920,37 +2250,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2549,15 +2848,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>107830</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2882,10 +3181,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C4DE0F-24D9-204F-A245-F4EFA64DE7B4}">
-  <dimension ref="A1:D169"/>
+  <dimension ref="A1:D170"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2906,27 +3205,31 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>-0.71</v>
+        <f>AVERAGE(A3:A170)</f>
+        <v>-0.14452380952380939</v>
       </c>
       <c r="B2">
-        <v>5.94</v>
+        <f>AVERAGE(B3:B170)</f>
+        <v>3.5782142857142851</v>
       </c>
       <c r="C2">
-        <v>-0.49</v>
+        <f>AVERAGE(C3:C86)</f>
+        <v>-0.44928571428571429</v>
       </c>
       <c r="D2">
-        <v>13.18</v>
+        <f>AVERAGE(D3:D86)</f>
+        <v>12.14357142857143</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>-0.52</v>
+        <v>-0.71</v>
       </c>
       <c r="B3">
-        <v>3.76</v>
+        <v>5.94</v>
       </c>
       <c r="C3">
-        <v>-0.46</v>
+        <v>-0.49</v>
       </c>
       <c r="D3">
         <v>13.18</v>
@@ -2934,86 +3237,86 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>-0.43</v>
+        <v>-0.52</v>
       </c>
       <c r="B4">
-        <v>0.86</v>
+        <v>3.76</v>
       </c>
       <c r="C4">
         <v>-0.46</v>
       </c>
       <c r="D4">
-        <v>13.35</v>
+        <v>13.18</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>-0.37</v>
+        <v>-0.43</v>
       </c>
       <c r="B5">
-        <v>1.21</v>
+        <v>0.86</v>
       </c>
       <c r="C5">
-        <v>-0.49</v>
+        <v>-0.46</v>
       </c>
       <c r="D5">
-        <v>12.86</v>
+        <v>13.35</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>-0.52</v>
+        <v>-0.37</v>
       </c>
       <c r="B6">
-        <v>2.76</v>
+        <v>1.21</v>
       </c>
       <c r="C6">
         <v>-0.49</v>
       </c>
       <c r="D6">
-        <v>12.6</v>
+        <v>12.86</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>-0.4</v>
+        <v>-0.52</v>
       </c>
       <c r="B7">
-        <v>0.57999999999999996</v>
+        <v>2.76</v>
       </c>
       <c r="C7">
         <v>-0.49</v>
       </c>
       <c r="D7">
-        <v>11.72</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>-0.12</v>
+        <v>-0.4</v>
       </c>
       <c r="B8">
-        <v>3.72</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C8">
-        <v>-0.46</v>
+        <v>-0.49</v>
       </c>
       <c r="D8">
-        <v>13.52</v>
+        <v>11.72</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>-0.15</v>
+        <v>-0.12</v>
       </c>
       <c r="B9">
-        <v>3.57</v>
+        <v>3.72</v>
       </c>
       <c r="C9">
-        <v>-0.49</v>
+        <v>-0.46</v>
       </c>
       <c r="D9">
-        <v>12.83</v>
+        <v>13.52</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3021,13 +3324,13 @@
         <v>-0.15</v>
       </c>
       <c r="B10">
-        <v>3.29</v>
+        <v>3.57</v>
       </c>
       <c r="C10">
         <v>-0.49</v>
       </c>
       <c r="D10">
-        <v>12.92</v>
+        <v>12.83</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3035,83 +3338,83 @@
         <v>-0.15</v>
       </c>
       <c r="B11">
-        <v>3.13</v>
+        <v>3.29</v>
       </c>
       <c r="C11">
         <v>-0.49</v>
       </c>
       <c r="D11">
-        <v>12.04</v>
+        <v>12.92</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>-0.21</v>
+        <v>-0.15</v>
       </c>
       <c r="B12">
-        <v>2.76</v>
+        <v>3.13</v>
       </c>
       <c r="C12">
         <v>-0.49</v>
       </c>
       <c r="D12">
-        <v>11.88</v>
+        <v>12.04</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>-0.12</v>
+        <v>-0.21</v>
       </c>
       <c r="B13">
-        <v>2.38</v>
+        <v>2.76</v>
       </c>
       <c r="C13">
         <v>-0.49</v>
       </c>
       <c r="D13">
-        <v>11.92</v>
+        <v>11.88</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>-0.18</v>
+        <v>-0.12</v>
       </c>
       <c r="B14">
-        <v>1.95</v>
+        <v>2.38</v>
       </c>
       <c r="C14">
-        <v>-0.46</v>
+        <v>-0.49</v>
       </c>
       <c r="D14">
-        <v>11.75</v>
+        <v>11.92</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>-0.06</v>
+        <v>-0.18</v>
       </c>
       <c r="B15">
-        <v>3.86</v>
+        <v>1.95</v>
       </c>
       <c r="C15">
-        <v>-0.52</v>
+        <v>-0.46</v>
       </c>
       <c r="D15">
-        <v>12.33</v>
+        <v>11.75</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>-0.15</v>
+        <v>-0.06</v>
       </c>
       <c r="B16">
-        <v>4.09</v>
+        <v>3.86</v>
       </c>
       <c r="C16">
-        <v>-0.4</v>
+        <v>-0.52</v>
       </c>
       <c r="D16">
-        <v>12.16</v>
+        <v>12.33</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -3119,13 +3422,13 @@
         <v>-0.15</v>
       </c>
       <c r="B17">
-        <v>4.03</v>
+        <v>4.09</v>
       </c>
       <c r="C17">
-        <v>-0.55000000000000004</v>
+        <v>-0.4</v>
       </c>
       <c r="D17">
-        <v>13.23</v>
+        <v>12.16</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -3133,55 +3436,55 @@
         <v>-0.15</v>
       </c>
       <c r="B18">
-        <v>3.76</v>
+        <v>4.03</v>
       </c>
       <c r="C18">
-        <v>-0.46</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="D18">
-        <v>12.36</v>
+        <v>13.23</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>-0.12</v>
+        <v>-0.15</v>
       </c>
       <c r="B19">
-        <v>3.98</v>
+        <v>3.76</v>
       </c>
       <c r="C19">
-        <v>-0.49</v>
+        <v>-0.46</v>
       </c>
       <c r="D19">
-        <v>14.07</v>
+        <v>12.36</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>-0.15</v>
+        <v>-0.12</v>
       </c>
       <c r="B20">
-        <v>0.42</v>
+        <v>3.98</v>
       </c>
       <c r="C20">
-        <v>-0.4</v>
+        <v>-0.49</v>
       </c>
       <c r="D20">
-        <v>12.56</v>
+        <v>14.07</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>-0.12</v>
+        <v>-0.15</v>
       </c>
       <c r="B21">
-        <v>3.35</v>
+        <v>0.42</v>
       </c>
       <c r="C21">
         <v>-0.4</v>
       </c>
       <c r="D21">
-        <v>12.85</v>
+        <v>12.56</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -3189,13 +3492,13 @@
         <v>-0.12</v>
       </c>
       <c r="B22">
-        <v>3.11</v>
+        <v>3.35</v>
       </c>
       <c r="C22">
-        <v>-0.49</v>
+        <v>-0.4</v>
       </c>
       <c r="D22">
-        <v>12.95</v>
+        <v>12.85</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -3203,41 +3506,41 @@
         <v>-0.12</v>
       </c>
       <c r="B23">
-        <v>2.95</v>
+        <v>3.11</v>
       </c>
       <c r="C23">
-        <v>-0.43</v>
+        <v>-0.49</v>
       </c>
       <c r="D23">
-        <v>11.87</v>
+        <v>12.95</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>-0.15</v>
+        <v>-0.12</v>
       </c>
       <c r="B24">
-        <v>2.54</v>
+        <v>2.95</v>
       </c>
       <c r="C24">
-        <v>-0.49</v>
+        <v>-0.43</v>
       </c>
       <c r="D24">
-        <v>13.52</v>
+        <v>11.87</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>-0.12</v>
+        <v>-0.15</v>
       </c>
       <c r="B25">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="C25">
         <v>-0.49</v>
       </c>
       <c r="D25">
-        <v>12.22</v>
+        <v>13.52</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -3245,13 +3548,13 @@
         <v>-0.12</v>
       </c>
       <c r="B26">
-        <v>3.56</v>
+        <v>2.6</v>
       </c>
       <c r="C26">
-        <v>-0.4</v>
+        <v>-0.49</v>
       </c>
       <c r="D26">
-        <v>12.28</v>
+        <v>12.22</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -3259,27 +3562,27 @@
         <v>-0.12</v>
       </c>
       <c r="B27">
-        <v>3.31</v>
+        <v>3.56</v>
       </c>
       <c r="C27">
-        <v>-0.52</v>
+        <v>-0.4</v>
       </c>
       <c r="D27">
-        <v>13.38</v>
+        <v>12.28</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>-0.15</v>
+        <v>-0.12</v>
       </c>
       <c r="B28">
-        <v>3.21</v>
+        <v>3.31</v>
       </c>
       <c r="C28">
-        <v>-0.46</v>
+        <v>-0.52</v>
       </c>
       <c r="D28">
-        <v>13.15</v>
+        <v>13.38</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -3287,27 +3590,27 @@
         <v>-0.15</v>
       </c>
       <c r="B29">
-        <v>3.33</v>
+        <v>3.21</v>
       </c>
       <c r="C29">
-        <v>-0.52</v>
+        <v>-0.46</v>
       </c>
       <c r="D29">
-        <v>13.27</v>
+        <v>13.15</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>-0.12</v>
+        <v>-0.15</v>
       </c>
       <c r="B30">
-        <v>2.63</v>
+        <v>3.33</v>
       </c>
       <c r="C30">
-        <v>-0.49</v>
+        <v>-0.52</v>
       </c>
       <c r="D30">
-        <v>13.95</v>
+        <v>13.27</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -3315,55 +3618,55 @@
         <v>-0.12</v>
       </c>
       <c r="B31">
-        <v>2.71</v>
+        <v>2.63</v>
       </c>
       <c r="C31">
-        <v>-0.52</v>
+        <v>-0.49</v>
       </c>
       <c r="D31">
-        <v>11.95</v>
+        <v>13.95</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>0</v>
+        <v>-0.12</v>
       </c>
       <c r="B32">
-        <v>3.47</v>
+        <v>2.71</v>
       </c>
       <c r="C32">
         <v>-0.52</v>
       </c>
       <c r="D32">
-        <v>13.22</v>
+        <v>11.95</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
       <c r="B33">
-        <v>3.67</v>
+        <v>3.47</v>
       </c>
       <c r="C33">
-        <v>-0.46</v>
+        <v>-0.52</v>
       </c>
       <c r="D33">
-        <v>13.48</v>
+        <v>13.22</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>-0.18</v>
+        <v>-0.15</v>
       </c>
       <c r="B34">
-        <v>3.74</v>
+        <v>3.67</v>
       </c>
       <c r="C34">
-        <v>-0.49</v>
+        <v>-0.46</v>
       </c>
       <c r="D34">
-        <v>13.54</v>
+        <v>13.48</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -3371,27 +3674,27 @@
         <v>-0.18</v>
       </c>
       <c r="B35">
-        <v>3.59</v>
+        <v>3.74</v>
       </c>
       <c r="C35">
-        <v>-0.46</v>
+        <v>-0.49</v>
       </c>
       <c r="D35">
-        <v>14.39</v>
+        <v>13.54</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>-0.12</v>
+        <v>-0.18</v>
       </c>
       <c r="B36">
-        <v>3.15</v>
+        <v>3.59</v>
       </c>
       <c r="C36">
-        <v>-0.49</v>
+        <v>-0.46</v>
       </c>
       <c r="D36">
-        <v>12.15</v>
+        <v>14.39</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -3399,69 +3702,69 @@
         <v>-0.12</v>
       </c>
       <c r="B37">
-        <v>2.95</v>
+        <v>3.15</v>
       </c>
       <c r="C37">
-        <v>-0.52</v>
+        <v>-0.49</v>
       </c>
       <c r="D37">
-        <v>12.82</v>
+        <v>12.15</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>-0.15</v>
+        <v>-0.12</v>
       </c>
       <c r="B38">
-        <v>3.84</v>
+        <v>2.95</v>
       </c>
       <c r="C38">
-        <v>-0.4</v>
+        <v>-0.52</v>
       </c>
       <c r="D38">
-        <v>10.18</v>
+        <v>12.82</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>-0.12</v>
+        <v>-0.15</v>
       </c>
       <c r="B39">
-        <v>3.7</v>
+        <v>3.84</v>
       </c>
       <c r="C39">
         <v>-0.4</v>
       </c>
       <c r="D39">
-        <v>11.69</v>
+        <v>10.18</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>-0.15</v>
+        <v>-0.12</v>
       </c>
       <c r="B40">
-        <v>3.96</v>
+        <v>3.7</v>
       </c>
       <c r="C40">
-        <v>-0.43</v>
+        <v>-0.4</v>
       </c>
       <c r="D40">
-        <v>11.63</v>
+        <v>11.69</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>-0.12</v>
+        <v>-0.15</v>
       </c>
       <c r="B41">
-        <v>3.97</v>
+        <v>3.96</v>
       </c>
       <c r="C41">
         <v>-0.43</v>
       </c>
       <c r="D41">
-        <v>10.94</v>
+        <v>11.63</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -3469,69 +3772,69 @@
         <v>-0.12</v>
       </c>
       <c r="B42">
-        <v>3.75</v>
+        <v>3.97</v>
       </c>
       <c r="C42">
         <v>-0.43</v>
       </c>
       <c r="D42">
-        <v>11.53</v>
+        <v>10.94</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>-0.18</v>
+        <v>-0.12</v>
       </c>
       <c r="B43">
-        <v>3.61</v>
+        <v>3.75</v>
       </c>
       <c r="C43">
         <v>-0.43</v>
       </c>
       <c r="D43">
-        <v>11.85</v>
+        <v>11.53</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>-0.09</v>
+        <v>-0.18</v>
       </c>
       <c r="B44">
-        <v>3.33</v>
+        <v>3.61</v>
       </c>
       <c r="C44">
-        <v>0.03</v>
+        <v>-0.43</v>
       </c>
       <c r="D44">
-        <v>-0.5</v>
+        <v>11.85</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>-0.15</v>
+        <v>-0.09</v>
       </c>
       <c r="B45">
-        <v>3.83</v>
+        <v>3.33</v>
       </c>
       <c r="C45">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="D45">
-        <v>-0.01</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>-0.12</v>
+        <v>-0.15</v>
       </c>
       <c r="B46">
-        <v>3.79</v>
+        <v>3.83</v>
       </c>
       <c r="C46">
         <v>0.09</v>
       </c>
       <c r="D46">
-        <v>0.03</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -3539,41 +3842,41 @@
         <v>-0.12</v>
       </c>
       <c r="B47">
-        <v>3.45</v>
+        <v>3.79</v>
       </c>
       <c r="C47">
-        <v>-0.43</v>
+        <v>0.09</v>
       </c>
       <c r="D47">
-        <v>2.21</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>-0.18</v>
+        <v>-0.12</v>
       </c>
       <c r="B48">
-        <v>3.62</v>
+        <v>3.45</v>
       </c>
       <c r="C48">
-        <v>-0.49</v>
+        <v>-0.43</v>
       </c>
       <c r="D48">
-        <v>13.45</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>-0.12</v>
+        <v>-0.18</v>
       </c>
       <c r="B49">
-        <v>2.63</v>
+        <v>3.62</v>
       </c>
       <c r="C49">
-        <v>-0.4</v>
+        <v>-0.49</v>
       </c>
       <c r="D49">
-        <v>13.14</v>
+        <v>13.45</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -3581,27 +3884,27 @@
         <v>-0.12</v>
       </c>
       <c r="B50">
-        <v>3.77</v>
+        <v>2.63</v>
       </c>
       <c r="C50">
-        <v>-0.43</v>
+        <v>-0.4</v>
       </c>
       <c r="D50">
-        <v>13.07</v>
+        <v>13.14</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>-0.15</v>
+        <v>-0.12</v>
       </c>
       <c r="B51">
-        <v>3.56</v>
+        <v>3.77</v>
       </c>
       <c r="C51">
-        <v>-0.49</v>
+        <v>-0.43</v>
       </c>
       <c r="D51">
-        <v>13.12</v>
+        <v>13.07</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -3609,27 +3912,27 @@
         <v>-0.15</v>
       </c>
       <c r="B52">
-        <v>3.86</v>
+        <v>3.56</v>
       </c>
       <c r="C52">
         <v>-0.49</v>
       </c>
       <c r="D52">
-        <v>12.98</v>
+        <v>13.12</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>-0.18</v>
+        <v>-0.15</v>
       </c>
       <c r="B53">
-        <v>3.63</v>
+        <v>3.86</v>
       </c>
       <c r="C53">
-        <v>-0.52</v>
+        <v>-0.49</v>
       </c>
       <c r="D53">
-        <v>13.78</v>
+        <v>12.98</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -3637,13 +3940,13 @@
         <v>-0.18</v>
       </c>
       <c r="B54">
-        <v>3.2</v>
+        <v>3.63</v>
       </c>
       <c r="C54">
-        <v>-0.49</v>
+        <v>-0.52</v>
       </c>
       <c r="D54">
-        <v>13.58</v>
+        <v>13.78</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -3651,27 +3954,27 @@
         <v>-0.18</v>
       </c>
       <c r="B55">
-        <v>3.59</v>
+        <v>3.2</v>
       </c>
       <c r="C55">
         <v>-0.49</v>
       </c>
       <c r="D55">
-        <v>13.08</v>
+        <v>13.58</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>-0.06</v>
+        <v>-0.18</v>
       </c>
       <c r="B56">
-        <v>4.2</v>
+        <v>3.59</v>
       </c>
       <c r="C56">
         <v>-0.49</v>
       </c>
       <c r="D56">
-        <v>13.44</v>
+        <v>13.08</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -3679,88 +3982,88 @@
         <v>-0.06</v>
       </c>
       <c r="B57">
-        <v>4.05</v>
+        <v>4.2</v>
       </c>
       <c r="C57">
         <v>-0.49</v>
       </c>
       <c r="D57">
-        <v>14.06</v>
+        <v>13.44</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>-0.15</v>
+        <v>-0.06</v>
       </c>
       <c r="B58">
-        <v>3.89</v>
+        <v>4.05</v>
       </c>
       <c r="C58">
-        <v>-0.46</v>
+        <v>-0.49</v>
       </c>
       <c r="D58">
-        <v>13.28</v>
+        <v>14.06</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>-0.18</v>
+        <v>-0.15</v>
       </c>
       <c r="B59">
-        <v>4.04</v>
+        <v>3.89</v>
       </c>
       <c r="C59">
-        <v>-0.49</v>
+        <v>-0.46</v>
       </c>
       <c r="D59">
-        <v>13.37</v>
+        <v>13.28</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>-0.12</v>
+        <v>-0.18</v>
       </c>
       <c r="B60">
-        <v>3.05</v>
+        <v>4.04</v>
       </c>
       <c r="C60">
         <v>-0.49</v>
       </c>
       <c r="D60">
-        <v>12.32</v>
+        <v>13.37</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>-0.18</v>
+        <v>-0.12</v>
       </c>
       <c r="B61">
-        <v>3.34</v>
+        <v>3.05</v>
       </c>
       <c r="C61">
-        <v>-0.46</v>
+        <v>-0.49</v>
       </c>
       <c r="D61">
-        <v>11.88</v>
+        <v>12.32</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>-0.15</v>
+        <v>-0.18</v>
       </c>
       <c r="B62">
-        <v>4.1900000000000004</v>
+        <v>3.34</v>
       </c>
       <c r="C62">
         <v>-0.46</v>
       </c>
       <c r="D62">
-        <v>12.96</v>
+        <v>11.88</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>-0.21</v>
+        <v>-0.15</v>
       </c>
       <c r="B63">
         <v>4.1900000000000004</v>
@@ -3769,217 +4072,217 @@
         <v>-0.46</v>
       </c>
       <c r="D63">
-        <v>12.67</v>
+        <v>12.96</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>-0.18</v>
+        <v>-0.21</v>
       </c>
       <c r="B64">
-        <v>3.64</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="C64">
         <v>-0.46</v>
       </c>
       <c r="D64">
-        <v>13.38</v>
+        <v>12.67</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>-0.15</v>
+        <v>-0.18</v>
       </c>
       <c r="B65">
-        <v>3.62</v>
+        <v>3.64</v>
       </c>
       <c r="C65">
-        <v>-0.49</v>
+        <v>-0.46</v>
       </c>
       <c r="D65">
-        <v>13.09</v>
+        <v>13.38</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>-0.12</v>
+        <v>-0.15</v>
       </c>
       <c r="B66">
-        <v>3.18</v>
+        <v>3.62</v>
       </c>
       <c r="C66">
-        <v>-0.46</v>
+        <v>-0.49</v>
       </c>
       <c r="D66">
-        <v>12.96</v>
+        <v>13.09</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>-0.18</v>
+        <v>-0.12</v>
       </c>
       <c r="B67">
-        <v>2.83</v>
+        <v>3.18</v>
       </c>
       <c r="C67">
-        <v>-0.49</v>
+        <v>-0.46</v>
       </c>
       <c r="D67">
-        <v>12.77</v>
+        <v>12.96</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>-0.09</v>
+        <v>-0.18</v>
       </c>
       <c r="B68">
-        <v>3.76</v>
+        <v>2.83</v>
       </c>
       <c r="C68">
-        <v>-0.43</v>
+        <v>-0.49</v>
       </c>
       <c r="D68">
-        <v>12.61</v>
+        <v>12.77</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>-0.12</v>
+        <v>-0.09</v>
       </c>
       <c r="B69">
-        <v>3.48</v>
+        <v>3.76</v>
       </c>
       <c r="C69">
         <v>-0.43</v>
       </c>
       <c r="D69">
-        <v>12.62</v>
+        <v>12.61</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>-0.15</v>
+        <v>-0.12</v>
       </c>
       <c r="B70">
-        <v>3.15</v>
+        <v>3.48</v>
       </c>
       <c r="C70">
-        <v>-0.37</v>
+        <v>-0.43</v>
       </c>
       <c r="D70">
-        <v>11.48</v>
+        <v>12.62</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>-0.21</v>
+        <v>-0.15</v>
       </c>
       <c r="B71">
-        <v>3.6</v>
+        <v>3.15</v>
       </c>
       <c r="C71">
-        <v>-0.4</v>
+        <v>-0.37</v>
       </c>
       <c r="D71">
-        <v>11.21</v>
+        <v>11.48</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>-0.12</v>
+        <v>-0.21</v>
       </c>
       <c r="B72">
-        <v>2.95</v>
+        <v>3.6</v>
       </c>
       <c r="C72">
         <v>-0.4</v>
       </c>
       <c r="D72">
-        <v>10.3</v>
+        <v>11.21</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>-0.15</v>
+        <v>-0.12</v>
       </c>
       <c r="B73">
-        <v>3.23</v>
+        <v>2.95</v>
       </c>
       <c r="C73">
         <v>-0.4</v>
       </c>
       <c r="D73">
-        <v>11.95</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>0</v>
+        <v>-0.15</v>
       </c>
       <c r="B74">
-        <v>4.3099999999999996</v>
+        <v>3.23</v>
       </c>
       <c r="C74">
-        <v>-0.49</v>
+        <v>-0.4</v>
       </c>
       <c r="D74">
-        <v>13.16</v>
+        <v>11.95</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>-0.03</v>
+        <v>0</v>
       </c>
       <c r="B75">
-        <v>4.2300000000000004</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="C75">
-        <v>-0.43</v>
+        <v>-0.49</v>
       </c>
       <c r="D75">
-        <v>12.78</v>
+        <v>13.16</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>-0.12</v>
+        <v>-0.03</v>
       </c>
       <c r="B76">
-        <v>4.08</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="C76">
-        <v>-0.52</v>
+        <v>-0.43</v>
       </c>
       <c r="D76">
-        <v>14.18</v>
+        <v>12.78</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>-0.15</v>
+        <v>-0.12</v>
       </c>
       <c r="B77">
-        <v>4.71</v>
+        <v>4.08</v>
       </c>
       <c r="C77">
-        <v>-0.49</v>
+        <v>-0.52</v>
       </c>
       <c r="D77">
-        <v>13.69</v>
+        <v>14.18</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>-0.12</v>
+        <v>-0.15</v>
       </c>
       <c r="B78">
-        <v>3.94</v>
+        <v>4.71</v>
       </c>
       <c r="C78">
         <v>-0.49</v>
       </c>
       <c r="D78">
-        <v>13.89</v>
+        <v>13.69</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -3987,41 +4290,41 @@
         <v>-0.12</v>
       </c>
       <c r="B79">
-        <v>4.7</v>
+        <v>3.94</v>
       </c>
       <c r="C79">
-        <v>-0.52</v>
+        <v>-0.49</v>
       </c>
       <c r="D79">
-        <v>13.73</v>
+        <v>13.89</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>-0.06</v>
+        <v>-0.12</v>
       </c>
       <c r="B80">
-        <v>4.25</v>
+        <v>4.7</v>
       </c>
       <c r="C80">
-        <v>-0.46</v>
+        <v>-0.52</v>
       </c>
       <c r="D80">
-        <v>11.56</v>
+        <v>13.73</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>-0.12</v>
+        <v>-0.06</v>
       </c>
       <c r="B81">
-        <v>4.29</v>
+        <v>4.25</v>
       </c>
       <c r="C81">
-        <v>-0.49</v>
+        <v>-0.46</v>
       </c>
       <c r="D81">
-        <v>13.19</v>
+        <v>11.56</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -4029,13 +4332,13 @@
         <v>-0.12</v>
       </c>
       <c r="B82">
-        <v>4.1500000000000004</v>
+        <v>4.29</v>
       </c>
       <c r="C82">
         <v>-0.49</v>
       </c>
       <c r="D82">
-        <v>13.02</v>
+        <v>13.19</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -4043,13 +4346,13 @@
         <v>-0.12</v>
       </c>
       <c r="B83">
-        <v>4.41</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="C83">
         <v>-0.49</v>
       </c>
       <c r="D83">
-        <v>12.7</v>
+        <v>13.02</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -4057,13 +4360,13 @@
         <v>-0.12</v>
       </c>
       <c r="B84">
-        <v>4.38</v>
+        <v>4.41</v>
       </c>
       <c r="C84">
         <v>-0.49</v>
       </c>
       <c r="D84">
-        <v>12.68</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -4071,45 +4374,51 @@
         <v>-0.12</v>
       </c>
       <c r="B85">
-        <v>4.2300000000000004</v>
+        <v>4.38</v>
       </c>
       <c r="C85">
         <v>-0.49</v>
       </c>
       <c r="D85">
-        <v>11.93</v>
+        <v>12.68</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>-0.09</v>
+        <v>-0.12</v>
       </c>
       <c r="B86">
-        <v>4.3099999999999996</v>
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="C86">
+        <v>-0.49</v>
+      </c>
+      <c r="D86">
+        <v>11.93</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>-0.12</v>
+        <v>-0.09</v>
       </c>
       <c r="B87">
-        <v>4.28</v>
+        <v>4.3099999999999996</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>-0.15</v>
+        <v>-0.12</v>
       </c>
       <c r="B88">
-        <v>4.4400000000000004</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>-0.12</v>
+        <v>-0.15</v>
       </c>
       <c r="B89">
-        <v>4.42</v>
+        <v>4.4400000000000004</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -4117,7 +4426,7 @@
         <v>-0.12</v>
       </c>
       <c r="B90">
-        <v>4.1900000000000004</v>
+        <v>4.42</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -4125,28 +4434,28 @@
         <v>-0.12</v>
       </c>
       <c r="B91">
-        <v>4.8899999999999997</v>
+        <v>4.1900000000000004</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>-0.06</v>
+        <v>-0.12</v>
       </c>
       <c r="B92">
-        <v>4.4400000000000004</v>
+        <v>4.8899999999999997</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>-0.09</v>
+        <v>-0.06</v>
       </c>
       <c r="B93">
-        <v>4.25</v>
+        <v>4.4400000000000004</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>-0.12</v>
+        <v>-0.09</v>
       </c>
       <c r="B94">
         <v>4.25</v>
@@ -4157,7 +4466,7 @@
         <v>-0.12</v>
       </c>
       <c r="B95">
-        <v>3.57</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -4165,23 +4474,23 @@
         <v>-0.12</v>
       </c>
       <c r="B96">
-        <v>3.64</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>-0.15</v>
+        <v>-0.12</v>
       </c>
       <c r="B97">
-        <v>3.22</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>-0.12</v>
+        <v>-0.15</v>
       </c>
       <c r="B98">
-        <v>4.0999999999999996</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -4189,47 +4498,47 @@
         <v>-0.12</v>
       </c>
       <c r="B99">
-        <v>3.74</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>-0.15</v>
+        <v>-0.12</v>
       </c>
       <c r="B100">
-        <v>3.58</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>-0.18</v>
+        <v>-0.15</v>
       </c>
       <c r="B101">
-        <v>3.45</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>-0.12</v>
+        <v>-0.18</v>
       </c>
       <c r="B102">
-        <v>3.96</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>-0.15</v>
+        <v>-0.12</v>
       </c>
       <c r="B103">
-        <v>3.52</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>-0.12</v>
+        <v>-0.15</v>
       </c>
       <c r="B104">
-        <v>3.74</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -4237,15 +4546,15 @@
         <v>-0.12</v>
       </c>
       <c r="B105">
-        <v>3.37</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>-0.09</v>
+        <v>-0.12</v>
       </c>
       <c r="B106">
-        <v>3.32</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -4253,71 +4562,71 @@
         <v>-0.09</v>
       </c>
       <c r="B107">
-        <v>3.26</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>-0.15</v>
+        <v>-0.09</v>
       </c>
       <c r="B108">
-        <v>3.2</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>-0.18</v>
+        <v>-0.15</v>
       </c>
       <c r="B109">
-        <v>3.63</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>-0.15</v>
+        <v>-0.18</v>
       </c>
       <c r="B110">
-        <v>3.91</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>-0.12</v>
+        <v>-0.15</v>
       </c>
       <c r="B111">
-        <v>3.78</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>-0.15</v>
+        <v>-0.12</v>
       </c>
       <c r="B112">
-        <v>3.18</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>-0.12</v>
+        <v>-0.15</v>
       </c>
       <c r="B113">
-        <v>3.15</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>-0.15</v>
+        <v>-0.12</v>
       </c>
       <c r="B114">
-        <v>2.9</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>-0.12</v>
+        <v>-0.15</v>
       </c>
       <c r="B115">
-        <v>2.63</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -4325,31 +4634,31 @@
         <v>-0.12</v>
       </c>
       <c r="B116">
-        <v>3.57</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>-0.09</v>
+        <v>-0.12</v>
       </c>
       <c r="B117">
-        <v>3.14</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>-0.15</v>
+        <v>-0.09</v>
       </c>
       <c r="B118">
-        <v>3.13</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>-0.12</v>
+        <v>-0.15</v>
       </c>
       <c r="B119">
-        <v>2.92</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -4357,7 +4666,7 @@
         <v>-0.12</v>
       </c>
       <c r="B120">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -4365,7 +4674,7 @@
         <v>-0.12</v>
       </c>
       <c r="B121">
-        <v>2.94</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -4373,7 +4682,7 @@
         <v>-0.12</v>
       </c>
       <c r="B122">
-        <v>4.1399999999999997</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -4381,23 +4690,23 @@
         <v>-0.12</v>
       </c>
       <c r="B123">
-        <v>3.73</v>
+        <v>4.1399999999999997</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>-0.15</v>
+        <v>-0.12</v>
       </c>
       <c r="B124">
-        <v>3.71</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>-0.12</v>
+        <v>-0.15</v>
       </c>
       <c r="B125">
-        <v>3.47</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -4405,23 +4714,23 @@
         <v>-0.12</v>
       </c>
       <c r="B126">
-        <v>3.29</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>-0.15</v>
+        <v>-0.12</v>
       </c>
       <c r="B127">
-        <v>3.37</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>-0.12</v>
+        <v>-0.15</v>
       </c>
       <c r="B128">
-        <v>4.04</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -4429,7 +4738,7 @@
         <v>-0.12</v>
       </c>
       <c r="B129">
-        <v>3.67</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -4437,7 +4746,7 @@
         <v>-0.12</v>
       </c>
       <c r="B130">
-        <v>3.51</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -4445,15 +4754,15 @@
         <v>-0.12</v>
       </c>
       <c r="B131">
-        <v>3.22</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>-0.15</v>
+        <v>-0.12</v>
       </c>
       <c r="B132">
-        <v>3.92</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -4461,15 +4770,15 @@
         <v>-0.15</v>
       </c>
       <c r="B133">
-        <v>3.36</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>-0.12</v>
+        <v>-0.15</v>
       </c>
       <c r="B134">
-        <v>3.76</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -4477,7 +4786,7 @@
         <v>-0.12</v>
       </c>
       <c r="B135">
-        <v>3.85</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -4485,31 +4794,31 @@
         <v>-0.12</v>
       </c>
       <c r="B136">
-        <v>3.56</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>-0.15</v>
+        <v>-0.12</v>
       </c>
       <c r="B137">
-        <v>3.98</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>-0.12</v>
+        <v>-0.15</v>
       </c>
       <c r="B138">
-        <v>3.7</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>-0.15</v>
+        <v>-0.12</v>
       </c>
       <c r="B139">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -4517,15 +4826,15 @@
         <v>-0.15</v>
       </c>
       <c r="B140">
-        <v>3.92</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>-0.12</v>
+        <v>-0.15</v>
       </c>
       <c r="B141">
-        <v>3.87</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -4533,15 +4842,15 @@
         <v>-0.12</v>
       </c>
       <c r="B142">
-        <v>3.86</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>-0.15</v>
+        <v>-0.12</v>
       </c>
       <c r="B143">
-        <v>3.78</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -4549,7 +4858,7 @@
         <v>-0.15</v>
       </c>
       <c r="B144">
-        <v>4.12</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -4557,15 +4866,15 @@
         <v>-0.15</v>
       </c>
       <c r="B145">
-        <v>3.91</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>-0.12</v>
+        <v>-0.15</v>
       </c>
       <c r="B146">
-        <v>4.07</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -4573,15 +4882,15 @@
         <v>-0.12</v>
       </c>
       <c r="B147">
-        <v>3.9</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>-0.15</v>
+        <v>-0.12</v>
       </c>
       <c r="B148">
-        <v>3.88</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
@@ -4589,7 +4898,7 @@
         <v>-0.15</v>
       </c>
       <c r="B149">
-        <v>4.08</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -4597,7 +4906,7 @@
         <v>-0.15</v>
       </c>
       <c r="B150">
-        <v>4.18</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -4605,7 +4914,7 @@
         <v>-0.15</v>
       </c>
       <c r="B151">
-        <v>3.79</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
@@ -4613,7 +4922,7 @@
         <v>-0.15</v>
       </c>
       <c r="B152">
-        <v>4.03</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
@@ -4621,15 +4930,15 @@
         <v>-0.15</v>
       </c>
       <c r="B153">
-        <v>3.91</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>-0.12</v>
+        <v>-0.15</v>
       </c>
       <c r="B154">
-        <v>3.98</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
@@ -4637,15 +4946,15 @@
         <v>-0.12</v>
       </c>
       <c r="B155">
-        <v>3.96</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>-0.15</v>
+        <v>-0.12</v>
       </c>
       <c r="B156">
-        <v>3.88</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -4653,15 +4962,15 @@
         <v>-0.15</v>
       </c>
       <c r="B157">
-        <v>4.0999999999999996</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>-0.12</v>
+        <v>-0.15</v>
       </c>
       <c r="B158">
-        <v>4.0199999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -4669,55 +4978,55 @@
         <v>-0.12</v>
       </c>
       <c r="B159">
-        <v>4</v>
+        <v>4.0199999999999996</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>-0.15</v>
+        <v>-0.12</v>
       </c>
       <c r="B160">
-        <v>4.0199999999999996</v>
+        <v>4</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>-0.12</v>
+        <v>-0.15</v>
       </c>
       <c r="B161">
-        <v>3.79</v>
+        <v>4.0199999999999996</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>-0.18</v>
+        <v>-0.12</v>
       </c>
       <c r="B162">
-        <v>4.3499999999999996</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>-0.12</v>
+        <v>-0.18</v>
       </c>
       <c r="B163">
-        <v>3.2</v>
+        <v>4.3499999999999996</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>-0.09</v>
+        <v>-0.12</v>
       </c>
       <c r="B164">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>-0.12</v>
+        <v>-0.09</v>
       </c>
       <c r="B165">
-        <v>3.17</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
@@ -4725,15 +5034,15 @@
         <v>-0.12</v>
       </c>
       <c r="B166">
-        <v>3.11</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>-0.15</v>
+        <v>-0.12</v>
       </c>
       <c r="B167">
-        <v>3</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -4741,7 +5050,7 @@
         <v>-0.15</v>
       </c>
       <c r="B168">
-        <v>3.31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
@@ -4749,6 +5058,14 @@
         <v>-0.15</v>
       </c>
       <c r="B169">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>-0.15</v>
+      </c>
+      <c r="B170">
         <v>2.68</v>
       </c>
     </row>
